--- a/Forjamagia Touch.xlsx
+++ b/Forjamagia Touch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mejia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mejia\Desktop\Archivos varios\Materias\Bases informáticas\2021-1\Proyecto final\Dofus_Touch_Smithmagic_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827FA7DD-8805-4356-B3A3-1C33AA0B23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E7AF79-78CE-4A65-A6B4-569A16CE16EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2BDFEC14-46CF-4F34-945D-AD3BDDD4EE60}"/>
   </bookViews>
@@ -1130,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1192,9 +1192,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1554,28 +1551,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10285,8 +10282,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10298,428 +10295,428 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="149" t="s">
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="148" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="148"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="58" t="s">
+      <c r="B3" s="147"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="150"/>
+      <c r="G3" s="149"/>
     </row>
     <row r="4" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="54">
         <v>0.75</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="55">
         <v>2.5</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="56">
         <v>7.5</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <v>505</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="41">
         <v>3</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>9</v>
       </c>
       <c r="F5" s="14">
         <v>30</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="52">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>1</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>3</v>
       </c>
       <c r="F6" s="14">
         <v>10</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="52">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="41">
         <v>2</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>6</v>
       </c>
       <c r="F7" s="14">
         <v>20</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="52">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>20</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="53">
+      <c r="E8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="52">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="42">
-        <v>30</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="53">
+      <c r="D9" s="41">
+        <v>30</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="52">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>5</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>15</v>
       </c>
-      <c r="F10" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="53">
+      <c r="F10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="52">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <v>15</v>
       </c>
-      <c r="E11" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="53">
+      <c r="E11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="52">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>2</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>6</v>
       </c>
-      <c r="F12" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="53">
+      <c r="F12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="52">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="50" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <v>6</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="53">
+      <c r="E13" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="52">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>7</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>21</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="53">
+      <c r="F14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="52">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="41">
         <v>100</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="53">
+      <c r="E15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>90</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="53">
+      <c r="E16" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="42">
-        <v>30</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="53">
+      <c r="D17" s="41">
+        <v>30</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="52">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>51</v>
       </c>
-      <c r="E18" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="53">
+      <c r="E18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="42">
-        <v>30</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="53">
+      <c r="D19" s="41">
+        <v>30</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>20</v>
       </c>
-      <c r="E20" s="24">
-        <v>30</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="53">
+      <c r="E20" s="23">
+        <v>30</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="52">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="41">
         <v>4</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>12</v>
       </c>
-      <c r="F21" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="53">
+      <c r="F21" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="52">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="47" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>1</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>3</v>
       </c>
       <c r="F22" s="14">
         <v>10</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="52">
         <v>1010</v>
       </c>
     </row>
     <row r="23" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="41">
         <v>3</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>9</v>
       </c>
-      <c r="F23" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="53">
+      <c r="F23" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="52">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="47" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>2.5</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>7.5</v>
       </c>
       <c r="F24" s="14">
         <v>25</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="52">
         <v>404</v>
       </c>
     </row>
     <row r="25" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="42">
         <v>5</v>
       </c>
-      <c r="E25" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="54">
+      <c r="E25" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="53">
         <v>1</v>
       </c>
     </row>
@@ -10741,8 +10738,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10756,768 +10753,768 @@
       <c r="B2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="149"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="2:6" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="148"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="31" t="s">
+      <c r="B5" s="147"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <f>TRUNC($C$2/Pesos!D4)</f>
         <v>133</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <f>TRUNC($C$2/Pesos!E4)</f>
         <v>40</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <f>TRUNC($C$2/Pesos!F4)</f>
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="29">
+      <c r="C7" s="153"/>
+      <c r="D7" s="28">
         <f>TRUNC($C$2-D6*Pesos!D4)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <f>TRUNC($C$2-E6*Pesos!E4)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <f>TRUNC($C$2-F6*Pesos!F4)</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <f>TRUNC($C$2/Pesos!D5)</f>
         <v>33</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <f>TRUNC($C$2/Pesos!E5)</f>
         <v>11</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <f>TRUNC($C$2/Pesos!F5)</f>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="29">
+      <c r="C9" s="153"/>
+      <c r="D9" s="28">
         <f>TRUNC($C$2-D8*Pesos!D5)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <f>TRUNC($C$2-E8*Pesos!E5)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <f>TRUNC($C$2-F8*Pesos!F5)</f>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <f>TRUNC($C$2/Pesos!D6)</f>
         <v>100</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <f>TRUNC($C$2/Pesos!E6)</f>
         <v>33</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <f>TRUNC($C$2/Pesos!F6)</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="29">
+      <c r="C11" s="153"/>
+      <c r="D11" s="28">
         <f>TRUNC($C$2-D10*Pesos!D6)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <f>TRUNC($C$2-E10*Pesos!E6)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <f>TRUNC($C$2-F10*Pesos!F6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="27">
-        <f>TRUNC(C2/2)</f>
+      <c r="D12" s="26">
+        <f>TRUNC($C$2/Pesos!D7)</f>
         <v>50</v>
       </c>
-      <c r="E12" s="27">
-        <f>TRUNC(C2/6)</f>
+      <c r="E12" s="26">
+        <f>TRUNC($C$2/Pesos!E7)</f>
         <v>16</v>
       </c>
-      <c r="F12" s="28">
-        <f>TRUNC(C2/20)</f>
+      <c r="F12" s="26">
+        <f>TRUNC($C$2/Pesos!F7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="29">
-        <f>((C2/2)-TRUNC(C2/2))*2</f>
+      <c r="C13" s="153"/>
+      <c r="D13" s="28">
+        <f>TRUNC($C$2-D12*Pesos!D7)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="29">
-        <f>((C2/6)-TRUNC(C2/6))*6</f>
-        <v>4.0000000000000071</v>
-      </c>
-      <c r="F13" s="30">
-        <f>((C2/20)-TRUNC(C2/20))*20</f>
+      <c r="E13" s="28">
+        <f>TRUNC($C$2-E12*Pesos!E7)</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="28">
+        <f>TRUNC($C$2-F12*Pesos!F7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="27">
-        <f>TRUNC(C2/20)</f>
+      <c r="D14" s="26">
+        <f>TRUNC($C$2/Pesos!D8)</f>
         <v>5</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="34" t="s">
+      <c r="E14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="29">
-        <f>((C2/20)-TRUNC(C2/20))*20</f>
+      <c r="C15" s="153"/>
+      <c r="D15" s="28">
+        <f>TRUNC($C$2-D14*Pesos!D8)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="27">
-        <f>TRUNC(C2/5)</f>
+      <c r="D16" s="26">
+        <f>TRUNC($C$2/Pesos!D9)</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="153"/>
+      <c r="D17" s="28">
+        <f>TRUNC($C$2-D16*Pesos!D9)</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="26">
+        <f>TRUNC($C$2/Pesos!D10)</f>
         <v>20</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="151" t="s">
+      <c r="E18" s="26">
+        <f>TRUNC($C$2/Pesos!E10)</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="29">
-        <f>((C2/5)-TRUNC(C2/5))*5</f>
+      <c r="C19" s="153"/>
+      <c r="D19" s="28">
+        <f>TRUNC($C$2-D18*Pesos!D10)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="27">
-        <f>TRUNC(C2/5)</f>
+      <c r="E19" s="28">
+        <f>TRUNC($C$2-E18*Pesos!E10)</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
+      <c r="C20" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="26">
+        <f>TRUNC($C$2/Pesos!D11)</f>
+        <v>6</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="153"/>
+      <c r="D21" s="28">
+        <f>TRUNC($C$2-D20*Pesos!D11)</f>
+        <v>10</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
+      <c r="C22" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="26">
+        <f>TRUNC($C$2/Pesos!D12)</f>
+        <v>50</v>
+      </c>
+      <c r="E22" s="26">
+        <f>TRUNC($C$2/Pesos!E12)</f>
+        <v>16</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="153"/>
+      <c r="D23" s="28">
+        <f>TRUNC($C$2-D22*Pesos!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="28">
+        <f>TRUNC($C$2-E22*Pesos!E12)</f>
+        <v>4</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
+      <c r="C24" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="26">
+        <f>TRUNC($C$2/Pesos!D13)</f>
+        <v>16</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="153"/>
+      <c r="D25" s="28">
+        <f>TRUNC($C$2-D24*Pesos!D13)</f>
+        <v>4</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="24"/>
+      <c r="C26" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="26">
+        <f>TRUNC($C$2/Pesos!D14)</f>
+        <v>14</v>
+      </c>
+      <c r="E26" s="26">
+        <f>TRUNC($C$2/Pesos!E14)</f>
+        <v>4</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="153"/>
+      <c r="D27" s="28">
+        <f>TRUNC($C$2-D26*Pesos!D14)</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="28">
+        <f>TRUNC($C$2-E26*Pesos!E14)</f>
+        <v>16</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="26">
+        <f>TRUNC($C$2/Pesos!D15)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="153"/>
+      <c r="D29" s="28">
+        <f>TRUNC($C$2-D28*Pesos!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="26">
+        <f>TRUNC($C$2/Pesos!D16)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="153"/>
+      <c r="D31" s="28">
+        <f>TRUNC($C$2-D30*Pesos!D16)</f>
+        <v>10</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="27">
-        <f>TRUNC(C2/15)</f>
-        <v>6</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="151" t="s">
+      <c r="D32" s="26">
+        <f>TRUNC($C$2/Pesos!D17)</f>
+        <v>3</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="29">
-        <f>((C2/5)-TRUNC(C2/5))*5</f>
+      <c r="C33" s="153"/>
+      <c r="D33" s="28">
+        <f>TRUNC($C$2-D32*Pesos!D17)</f>
+        <v>10</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="26">
+        <f>TRUNC($C$2/Pesos!D18)</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="153"/>
+      <c r="D35" s="28">
+        <f>TRUNC($C$2-D34*Pesos!D18)</f>
+        <v>49</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="26">
+        <f>TRUNC($C$2/Pesos!D19)</f>
+        <v>3</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="153"/>
+      <c r="D37" s="28">
+        <f>TRUNC($C$2-D36*Pesos!D19)</f>
+        <v>10</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="26">
+        <f>TRUNC($C$2/Pesos!D20)</f>
+        <v>5</v>
+      </c>
+      <c r="E38" s="26">
+        <f>TRUNC($C$2/Pesos!E20)</f>
+        <v>3</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="153"/>
+      <c r="D39" s="28">
+        <f>TRUNC($C$2-D38*Pesos!D20)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="29">
-        <f>((C2/15)-TRUNC(C2/15))*15</f>
-        <v>10.000000000000004</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="27">
-        <f>TRUNC(C2/15)</f>
-        <v>6</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="151" t="s">
+      <c r="E39" s="28">
+        <f>TRUNC($C$2-E38*Pesos!E20)</f>
+        <v>10</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="24"/>
+      <c r="C40" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="26">
+        <f>TRUNC($C$2/Pesos!D21)</f>
+        <v>25</v>
+      </c>
+      <c r="E40" s="26">
+        <f>TRUNC($C$2/Pesos!E21)</f>
+        <v>8</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="152"/>
-      <c r="D21" s="29">
-        <f>((C2/15)-TRUNC(C2/15))*15</f>
-        <v>10.000000000000004</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="27">
-        <f>TRUNC(C2/2)</f>
-        <v>50</v>
-      </c>
-      <c r="E22" s="27">
-        <f>TRUNC(C2/6)</f>
-        <v>16</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="151" t="s">
+      <c r="C41" s="153"/>
+      <c r="D41" s="28">
+        <f>TRUNC($C$2-D40*Pesos!D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="28">
+        <f>TRUNC($C$2-E40*Pesos!E21)</f>
+        <v>4</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="26">
+        <f>TRUNC($C$2/Pesos!D22)</f>
+        <v>100</v>
+      </c>
+      <c r="E42" s="26">
+        <f>TRUNC($C$2/Pesos!E22)</f>
+        <v>33</v>
+      </c>
+      <c r="F42" s="26">
+        <f>TRUNC($C$2/Pesos!F22)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="152"/>
-      <c r="D23" s="29">
-        <f>((C2/2)-TRUNC(C2/2))*2</f>
+      <c r="C43" s="153"/>
+      <c r="D43" s="28">
+        <f>TRUNC($C$2-D42*Pesos!D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="29">
-        <f>((C2/6)-TRUNC(C2/6))*6</f>
-        <v>4.0000000000000071</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="27">
-        <f>TRUNC(C2/6)</f>
-        <v>16</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="151" t="s">
+      <c r="E43" s="28">
+        <f>TRUNC($C$2-E42*Pesos!E22)</f>
+        <v>1</v>
+      </c>
+      <c r="F43" s="28">
+        <f>TRUNC($C$2-F42*Pesos!F22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="39"/>
+      <c r="C44" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="26">
+        <f>TRUNC($C$2/Pesos!D23)</f>
+        <v>33</v>
+      </c>
+      <c r="E44" s="26">
+        <f>TRUNC($C$2/Pesos!E23)</f>
+        <v>11</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="152"/>
-      <c r="D25" s="29">
-        <f>((C2/6)-TRUNC(C2/6))*6</f>
-        <v>4.0000000000000071</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="27">
-        <f>TRUNC(C2/7)</f>
-        <v>14</v>
-      </c>
-      <c r="E26" s="27">
-        <f>TRUNC(C2/21)</f>
+      <c r="C45" s="157"/>
+      <c r="D45" s="15">
+        <f>TRUNC($C$2-D44*Pesos!D23)</f>
+        <v>1</v>
+      </c>
+      <c r="E45" s="15">
+        <f>TRUNC($C$2-E44*Pesos!E23)</f>
+        <v>1</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="21"/>
+      <c r="C46" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="20">
+        <f>TRUNC($C$2/Pesos!D24)</f>
+        <v>40</v>
+      </c>
+      <c r="E46" s="20">
+        <f>TRUNC($C$2/Pesos!E24)</f>
+        <v>13</v>
+      </c>
+      <c r="F46" s="20">
+        <f>TRUNC($C$2/Pesos!F24)</f>
         <v>4</v>
       </c>
-      <c r="F26" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="151" t="s">
+    </row>
+    <row r="47" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="29">
-        <f>((C2/7)-TRUNC(C2/7))*7</f>
-        <v>2.0000000000000053</v>
-      </c>
-      <c r="E27" s="29">
-        <f>((C2/21)-TRUNC(C2/21))*21</f>
-        <v>16</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="27">
-        <f>TRUNC(C2/100)</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="151" t="s">
+      <c r="C47" s="155"/>
+      <c r="D47" s="28">
+        <f>TRUNC($C$2-D46*Pesos!D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="28">
+        <f>TRUNC($C$2-E46*Pesos!E24)</f>
+        <v>2</v>
+      </c>
+      <c r="F47" s="28">
+        <f>TRUNC($C$2-F46*Pesos!F24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="C48" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="26">
+        <f>TRUNC($C$2/Pesos!D25)</f>
+        <v>20</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="152"/>
-      <c r="D29" s="29">
-        <f>((C2/100)-TRUNC(C2/100))*100</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="27">
-        <f>TRUNC(C2/90)</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="151" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="152"/>
-      <c r="D31" s="29">
-        <f>((C2/90)-TRUNC(C2/90))*90</f>
-        <v>10.000000000000004</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="27">
-        <f>TRUNC(C2/10)</f>
-        <v>10</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="151" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="152"/>
-      <c r="D33" s="29">
-        <f>((C2/10)-TRUNC(C2/10))*10</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="27">
-        <f>TRUNC(C2/51)</f>
-        <v>1</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="151" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="152"/>
-      <c r="D35" s="29">
-        <f>((C2/51)-TRUNC(C2/51))*51</f>
-        <v>48.999999999999993</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="27">
-        <f>TRUNC(C2/30)</f>
-        <v>3</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="151" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="152"/>
-      <c r="D37" s="29">
-        <f>((C2/30)-TRUNC(C2/30))*30</f>
-        <v>10.000000000000004</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="27">
-        <f>TRUNC(C2/10)</f>
-        <v>10</v>
-      </c>
-      <c r="E38" s="27">
-        <f>TRUNC(C2/30)</f>
-        <v>3</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="151" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="152"/>
-      <c r="D39" s="29">
-        <f>((C2/10)-TRUNC(C2/10))*10</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="29">
-        <f>((C2/30)-TRUNC(C2/30))*30</f>
-        <v>10.000000000000004</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="27">
-        <f>TRUNC(C2/4)</f>
-        <v>25</v>
-      </c>
-      <c r="E40" s="27">
-        <f>TRUNC(C2/12)</f>
-        <v>8</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="151" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="152"/>
-      <c r="D41" s="29">
-        <f>((C2/4)-TRUNC(C2/4))*4</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="29">
-        <f>((C2/12)-TRUNC(C2/12))*12</f>
-        <v>4.0000000000000071</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="27">
-        <f>TRUNC(C2/1)</f>
-        <v>100</v>
-      </c>
-      <c r="E42" s="27">
-        <f>TRUNC(C2/3)</f>
-        <v>33</v>
-      </c>
-      <c r="F42" s="28">
-        <f>TRUNC(C2/10)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="151" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="152"/>
-      <c r="D43" s="29">
-        <f>((C2/1)-TRUNC(C2/1))*1</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="29">
-        <f>((C2/3)-TRUNC(C2/3))*3</f>
-        <v>1.0000000000000071</v>
-      </c>
-      <c r="F43" s="30">
-        <f>((C2/10)-TRUNC(C2/10))*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="40"/>
-      <c r="C44" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="27">
-        <f>TRUNC(C2/3)</f>
-        <v>33</v>
-      </c>
-      <c r="E44" s="27">
-        <f>TRUNC(C2/9)</f>
-        <v>11</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="153" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="154"/>
-      <c r="D45" s="15">
-        <f>((C2/3)-TRUNC(C2/3))*3</f>
-        <v>1.0000000000000071</v>
-      </c>
-      <c r="E45" s="15">
-        <f>((C2/9)-TRUNC(C2/9))*9</f>
-        <v>0.99999999999999645</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="20">
-        <f>TRUNC(C2/2.5)</f>
-        <v>40</v>
-      </c>
-      <c r="E46" s="20">
-        <f>TRUNC(C2/7.5)</f>
-        <v>13</v>
-      </c>
-      <c r="F46" s="21">
-        <f>TRUNC(C2/25)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="157" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="158"/>
-      <c r="D47" s="29">
-        <f>((C2/2.5)-TRUNC(C2/2.5))*2.5</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="29">
-        <f>((C2/7.5)-TRUNC(C2/7.5))*7.5</f>
-        <v>2.5000000000000044</v>
-      </c>
-      <c r="F47" s="30">
-        <f>((C2/25)-TRUNC(C2/25))*25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="27">
-        <f>TRUNC(C2/5)</f>
-        <v>20</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="155" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="156"/>
+      <c r="C49" s="151"/>
       <c r="D49" s="16">
-        <f>((C2/5)-TRUNC(C2/5))*5</f>
+        <f>TRUNC($C$2-D48*Pesos!D25)</f>
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
@@ -11529,18 +11526,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B47:C47"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
@@ -11554,6 +11539,18 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <conditionalFormatting sqref="C2">
     <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
@@ -11589,139 +11586,139 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="100" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="94" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="84" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="90" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="96" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="95" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F6" s="96" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="112" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="103">
+      <c r="E10" s="102">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="104">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="105" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="106">
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="110">
+      <c r="E13" s="109">
         <v>500</v>
       </c>
     </row>
@@ -11863,59 +11860,59 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="160"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="74" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="75" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="67"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="65" t="s">
         <v>50</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="76" t="s">
         <v>53</v>
       </c>
       <c r="H5"/>
@@ -11923,17 +11920,17 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="69"/>
-      <c r="C6" s="70" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="76" t="s">
         <v>56</v>
       </c>
       <c r="H6"/>
@@ -11941,197 +11938,197 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="69"/>
-      <c r="C7" s="70" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="76" t="s">
         <v>59</v>
       </c>
       <c r="H7"/>
       <c r="M7"/>
     </row>
     <row r="8" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="69"/>
-      <c r="C8" s="70" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="76" t="s">
         <v>62</v>
       </c>
       <c r="J8"/>
       <c r="L8"/>
     </row>
     <row r="9" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="69"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="80" t="s">
+      <c r="E9" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="79" t="s">
         <v>30</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
     </row>
     <row r="10" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="69"/>
-      <c r="C10" s="70" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="79" t="s">
         <v>30</v>
       </c>
       <c r="I10"/>
     </row>
     <row r="11" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="69"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="79" t="s">
         <v>30</v>
       </c>
       <c r="K11"/>
     </row>
     <row r="12" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="71" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="76" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="69"/>
-      <c r="C13" s="70" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="79" t="s">
         <v>30</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
-      <c r="C14" s="72" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="80" t="s">
+      <c r="E14" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="79" t="s">
         <v>30</v>
       </c>
       <c r="J14"/>
     </row>
     <row r="15" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="69"/>
-      <c r="C15" s="70" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I15"/>
     </row>
     <row r="16" spans="2:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="69"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="76" t="s">
         <v>63</v>
       </c>
       <c r="H16"/>
       <c r="K16"/>
     </row>
     <row r="17" spans="2:12" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="69"/>
-      <c r="C17" s="70" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="79" t="s">
         <v>30</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
     </row>
     <row r="18" spans="2:12" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
-      <c r="C18" s="70" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="76" t="s">
         <v>71</v>
       </c>
       <c r="G18"/>
@@ -12164,283 +12161,283 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="165"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="121" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="128" t="s">
+      <c r="E3" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="124" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="115"/>
-      <c r="C4" s="116" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="121">
         <v>0.5</v>
       </c>
-      <c r="E4" s="129">
+      <c r="E4" s="128">
         <v>1.5</v>
       </c>
-      <c r="F4" s="126">
+      <c r="F4" s="125">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="117"/>
-      <c r="C5" s="118" t="s">
+      <c r="B5" s="116"/>
+      <c r="C5" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="123">
+      <c r="D5" s="122">
         <v>2</v>
       </c>
-      <c r="E5" s="127">
+      <c r="E5" s="126">
         <v>6</v>
       </c>
-      <c r="F5" s="124">
+      <c r="F5" s="123">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="117"/>
-      <c r="C6" s="118" t="s">
+      <c r="B6" s="116"/>
+      <c r="C6" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="122">
         <v>1</v>
       </c>
-      <c r="E6" s="127">
+      <c r="E6" s="126">
         <v>3</v>
       </c>
-      <c r="F6" s="124">
+      <c r="F6" s="123">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="117"/>
-      <c r="C7" s="131" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="123">
+      <c r="D7" s="122">
         <v>2.5</v>
       </c>
-      <c r="E7" s="127">
+      <c r="E7" s="126">
         <v>7.5</v>
       </c>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="117"/>
-      <c r="C8" s="131" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="123">
+      <c r="D8" s="122">
         <v>3</v>
       </c>
-      <c r="E8" s="127">
+      <c r="E8" s="126">
         <v>9</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="F8" s="129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="117"/>
-      <c r="C9" s="119" t="s">
+      <c r="B9" s="116"/>
+      <c r="C9" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="123">
+      <c r="D9" s="122">
         <v>8</v>
       </c>
-      <c r="E9" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="130" t="s">
+      <c r="E9" s="129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="117"/>
-      <c r="C10" s="131" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="122">
         <v>1</v>
       </c>
-      <c r="E10" s="127">
+      <c r="E10" s="126">
         <v>3</v>
       </c>
-      <c r="F10" s="130" t="s">
+      <c r="F10" s="129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="117"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="123">
+      <c r="D11" s="122">
         <v>3</v>
       </c>
-      <c r="E11" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="130" t="s">
+      <c r="E11" s="129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="117"/>
-      <c r="C12" s="119" t="s">
+      <c r="B12" s="116"/>
+      <c r="C12" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="123">
+      <c r="D12" s="122">
         <v>4</v>
       </c>
-      <c r="E12" s="127">
+      <c r="E12" s="126">
         <v>12</v>
       </c>
-      <c r="F12" s="130" t="s">
+      <c r="F12" s="129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="117"/>
-      <c r="C13" s="118" t="s">
+      <c r="B13" s="116"/>
+      <c r="C13" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="123">
+      <c r="D13" s="122">
         <v>100</v>
       </c>
-      <c r="E13" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="130" t="s">
+      <c r="E13" s="129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="117"/>
-      <c r="C14" s="118" t="s">
+      <c r="B14" s="116"/>
+      <c r="C14" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="123">
+      <c r="D14" s="122">
         <v>90</v>
       </c>
-      <c r="E14" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="130" t="s">
+      <c r="E14" s="129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="117"/>
-      <c r="C15" s="118" t="s">
+      <c r="B15" s="116"/>
+      <c r="C15" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="122">
         <v>5</v>
       </c>
-      <c r="E15" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="130" t="s">
+      <c r="E15" s="129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="117"/>
-      <c r="C16" s="118" t="s">
+      <c r="B16" s="116"/>
+      <c r="C16" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="123">
+      <c r="D16" s="122">
         <v>51</v>
       </c>
-      <c r="E16" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="130" t="s">
+      <c r="E16" s="129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118" t="s">
+      <c r="B17" s="116"/>
+      <c r="C17" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="122">
         <v>5</v>
       </c>
-      <c r="E17" s="127">
+      <c r="E17" s="126">
         <v>15</v>
       </c>
-      <c r="F17" s="130" t="s">
+      <c r="F17" s="129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="117"/>
-      <c r="C18" s="118" t="s">
+      <c r="B18" s="116"/>
+      <c r="C18" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="123">
+      <c r="D18" s="122">
         <v>2</v>
       </c>
-      <c r="E18" s="127">
+      <c r="E18" s="126">
         <v>6</v>
       </c>
-      <c r="F18" s="130" t="s">
+      <c r="F18" s="129" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="117"/>
-      <c r="C19" s="118" t="s">
+      <c r="B19" s="116"/>
+      <c r="C19" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="123">
+      <c r="D19" s="122">
         <v>0.5</v>
       </c>
-      <c r="E19" s="127">
+      <c r="E19" s="126">
         <v>1.5</v>
       </c>
-      <c r="F19" s="124">
+      <c r="F19" s="123">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="117"/>
-      <c r="C20" s="118" t="s">
+      <c r="B20" s="116"/>
+      <c r="C20" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="123">
+      <c r="D20" s="122">
         <v>2</v>
       </c>
-      <c r="E20" s="127">
+      <c r="E20" s="126">
         <v>6</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="129" t="s">
         <v>30</v>
       </c>
     </row>
@@ -12474,599 +12471,599 @@
       <c r="B2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="141">
+      <c r="C2" s="140">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="149"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="2:6" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="148"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="142" t="s">
+      <c r="B5" s="147"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="142" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="134"/>
-      <c r="C6" s="135" t="s">
+      <c r="B6" s="133"/>
+      <c r="C6" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="132">
+      <c r="D6" s="131">
         <f>TRUNC(C2/0.5)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="132">
+      <c r="E6" s="131">
         <f>TRUNC(C2/1.5)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="133">
+      <c r="F6" s="132">
         <f>TRUNC(C2/5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="29">
+      <c r="C7" s="153"/>
+      <c r="D7" s="28">
         <f>(C2/0.5-TRUNC(C2/0.5))*0.5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <f>(C2/1.5-TRUNC(C2/1.5))*1.5</f>
         <v>0</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <f>(C2/5-TRUNC(C2/5))*5</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="134"/>
-      <c r="C8" s="135" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="132">
+      <c r="D8" s="131">
         <f>TRUNC(C2/2)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="132">
+      <c r="E8" s="131">
         <f>TRUNC(C2/6)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="133">
+      <c r="F8" s="132">
         <f>TRUNC(C2/20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="29">
+      <c r="C9" s="153"/>
+      <c r="D9" s="28">
         <f>((C2/2)-TRUNC(C2/2))*2</f>
         <v>0</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <f>((C2/6)-TRUNC(C2/6))*6</f>
         <v>0</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <f>((C2/20)-TRUNC(C2/20))*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="134"/>
-      <c r="C10" s="135" t="s">
+      <c r="B10" s="133"/>
+      <c r="C10" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="132">
+      <c r="D10" s="131">
         <f>TRUNC(C2/1)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="132">
+      <c r="E10" s="131">
         <f>TRUNC(C2/3)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="133">
+      <c r="F10" s="132">
         <f>TRUNC(C2/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="29">
+      <c r="C11" s="153"/>
+      <c r="D11" s="28">
         <f>((C2/1)-TRUNC(C2/1))*1</f>
         <v>0</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <f>((C2/3)-TRUNC(C2/3))*3</f>
         <v>0</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <f>((C2/10)-TRUNC(C2/10))*10</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="134"/>
-      <c r="C12" s="136" t="s">
+      <c r="B12" s="133"/>
+      <c r="C12" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="131">
         <f>TRUNC(C2/2.5)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="132">
+      <c r="E12" s="131">
         <f>TRUNC(C2/7.5)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="139" t="s">
+      <c r="F12" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="29">
+      <c r="C13" s="153"/>
+      <c r="D13" s="28">
         <f>((C2/2.5)-TRUNC(C2/2.5))*2.5</f>
         <v>0</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <f>((C2/7.5)-TRUNC(C2/7.5))*7.5</f>
         <v>0</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="134"/>
-      <c r="C14" s="144" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="132">
+      <c r="D14" s="131">
         <f>TRUNC(C2/3)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="132">
+      <c r="E14" s="131">
         <f>TRUNC(C2/9)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="139" t="s">
+      <c r="F14" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="29">
+      <c r="C15" s="153"/>
+      <c r="D15" s="28">
         <f>((C2/3)-TRUNC(C2/3))*3</f>
         <v>0</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <f>((C2/9)-TRUNC(C2/9))*9</f>
         <v>0</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="134"/>
-      <c r="C16" s="136" t="s">
+      <c r="B16" s="133"/>
+      <c r="C16" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="132">
+      <c r="D16" s="131">
         <f>TRUNC(C2/8)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="138" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="139" t="s">
+      <c r="E16" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="29">
+      <c r="C17" s="153"/>
+      <c r="D17" s="28">
         <f>((C2/8)-TRUNC(C2/8))*8</f>
         <v>0</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="36" t="s">
+      <c r="E17" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="134"/>
-      <c r="C18" s="144" t="s">
+      <c r="B18" s="133"/>
+      <c r="C18" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="132">
+      <c r="D18" s="131">
         <f>TRUNC(C2/1)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="132">
+      <c r="E18" s="131">
         <f>TRUNC(C2/3)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="139" t="s">
+      <c r="F18" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="29">
+      <c r="C19" s="153"/>
+      <c r="D19" s="28">
         <f>((C2/1)-TRUNC(C2/1))*1</f>
         <v>0</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="28">
         <f>((C2/3)-TRUNC(C2/3))*3</f>
         <v>0</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="134"/>
-      <c r="C20" s="137" t="s">
+      <c r="B20" s="133"/>
+      <c r="C20" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="132">
+      <c r="D20" s="131">
         <f>TRUNC(C2/3)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="138" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="139" t="s">
+      <c r="E20" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="152"/>
-      <c r="D21" s="29">
+      <c r="C21" s="153"/>
+      <c r="D21" s="28">
         <f>((C2/3)-TRUNC(C2/3))*3</f>
         <v>0</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="36" t="s">
+      <c r="E21" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="134"/>
-      <c r="C22" s="136" t="s">
+      <c r="B22" s="133"/>
+      <c r="C22" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="132">
+      <c r="D22" s="131">
         <f>TRUNC(C2/4)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="132">
+      <c r="E22" s="131">
         <f>TRUNC(C2/12)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="139" t="s">
+      <c r="F22" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="152"/>
-      <c r="D23" s="29">
+      <c r="C23" s="153"/>
+      <c r="D23" s="28">
         <f>((C2/4)-TRUNC(C2/4))*4</f>
         <v>0</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="28">
         <f>((C2/12)-TRUNC(C2/12))*12</f>
         <v>0</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="134"/>
-      <c r="C24" s="135" t="s">
+      <c r="B24" s="133"/>
+      <c r="C24" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="132">
+      <c r="D24" s="131">
         <f>TRUNC(C2/100)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="138" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="139" t="s">
+      <c r="E24" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="152"/>
-      <c r="D25" s="29">
+      <c r="C25" s="153"/>
+      <c r="D25" s="28">
         <f>((C2/100)-TRUNC(C2/100))*100</f>
         <v>0</v>
       </c>
-      <c r="E25" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="36" t="s">
+      <c r="E25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="134"/>
-      <c r="C26" s="135" t="s">
+      <c r="B26" s="133"/>
+      <c r="C26" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="132">
+      <c r="D26" s="131">
         <f>TRUNC(C2/90)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="138" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="139" t="s">
+      <c r="E26" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="151" t="s">
+      <c r="B27" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="29">
+      <c r="C27" s="153"/>
+      <c r="D27" s="28">
         <f>((C2/90)-TRUNC(C2/90))*90</f>
         <v>0</v>
       </c>
-      <c r="E27" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="36" t="s">
+      <c r="E27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="134"/>
-      <c r="C28" s="135" t="s">
+      <c r="B28" s="133"/>
+      <c r="C28" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="132">
+      <c r="D28" s="131">
         <f>TRUNC(C2/5)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="138" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="139" t="s">
+      <c r="E28" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="152"/>
-      <c r="D29" s="29">
+      <c r="C29" s="153"/>
+      <c r="D29" s="28">
         <f>((C2/5)-TRUNC(C2/5))*5</f>
         <v>0</v>
       </c>
-      <c r="E29" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="36" t="s">
+      <c r="E29" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="134"/>
-      <c r="C30" s="135" t="s">
+      <c r="B30" s="133"/>
+      <c r="C30" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="132">
+      <c r="D30" s="131">
         <f>TRUNC(C2/51)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="138" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="139" t="s">
+      <c r="E30" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="152"/>
-      <c r="D31" s="29">
+      <c r="C31" s="153"/>
+      <c r="D31" s="28">
         <f>((C2/51)-TRUNC(C2/51))*51</f>
         <v>0</v>
       </c>
-      <c r="E31" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="36" t="s">
+      <c r="E31" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="134"/>
-      <c r="C32" s="135" t="s">
+      <c r="B32" s="133"/>
+      <c r="C32" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="132">
+      <c r="D32" s="131">
         <f>TRUNC(C2/5)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="132">
+      <c r="E32" s="131">
         <f>TRUNC(C2/15)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="139" t="s">
+      <c r="F32" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="151" t="s">
+      <c r="B33" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="152"/>
-      <c r="D33" s="29">
+      <c r="C33" s="153"/>
+      <c r="D33" s="28">
         <f>((C2/5)-TRUNC(C2/5))*5</f>
         <v>0</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="28">
         <f>((C2/15)-TRUNC(C2/15))*15</f>
         <v>0</v>
       </c>
-      <c r="F33" s="140" t="s">
+      <c r="F33" s="139" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="134"/>
-      <c r="C34" s="135" t="s">
+      <c r="B34" s="133"/>
+      <c r="C34" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="132">
+      <c r="D34" s="131">
         <f>TRUNC(C2/2)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="132">
+      <c r="E34" s="131">
         <f>TRUNC(C2/6)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="139" t="s">
+      <c r="F34" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="151" t="s">
+      <c r="B35" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="152"/>
-      <c r="D35" s="29">
+      <c r="C35" s="153"/>
+      <c r="D35" s="28">
         <f>((C2/2)-TRUNC(C2/2))*2</f>
         <v>0</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="28">
         <f>((C2/6)-TRUNC(C2/6))*6</f>
         <v>0</v>
       </c>
-      <c r="F35" s="140" t="s">
+      <c r="F35" s="139" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="134"/>
-      <c r="C36" s="135" t="s">
+      <c r="B36" s="133"/>
+      <c r="C36" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="132">
+      <c r="D36" s="131">
         <f>TRUNC(C2/0.5)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="132">
+      <c r="E36" s="131">
         <f>TRUNC(C2/1.5)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="133">
+      <c r="F36" s="132">
         <f>TRUNC(C2/5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="152"/>
-      <c r="D37" s="29">
+      <c r="C37" s="153"/>
+      <c r="D37" s="28">
         <f>((C2/0.5)-TRUNC(C2/0.5))*0.5</f>
         <v>0</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="28">
         <f>((C2/1.5)-TRUNC(C2/1.5))*1.5</f>
         <v>0</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="29">
         <f>((C2/5)-TRUNC(C2/5))*5</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="134"/>
-      <c r="C38" s="135" t="s">
+      <c r="B38" s="133"/>
+      <c r="C38" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="132">
+      <c r="D38" s="131">
         <f>TRUNC(C2/2)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="132">
+      <c r="E38" s="131">
         <f>TRUNC(C2/6)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="139" t="s">
+      <c r="F38" s="138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:6" s="12" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="168" t="s">
+      <c r="B39" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="169"/>
+      <c r="C39" s="168"/>
       <c r="D39" s="16">
         <f>((C2/2)-TRUNC(C2/2))*2</f>
         <v>0</v>
@@ -13081,6 +13078,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B37:C37"/>
@@ -13091,16 +13098,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C2">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
